--- a/DOCUMENTACION_G1/ELICITACION/1.3  HISTORIAS DE USUARIO/Software_HISTORIAS_DE_USUARIO.xlsx
+++ b/DOCUMENTACION_G1/ELICITACION/1.3  HISTORIAS DE USUARIO/Software_HISTORIAS_DE_USUARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uespe-my.sharepoint.com/personal/rnzambrano_espe_edu_ec/Documents/University ESPE Data/Ingeneria de sofware 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D8DFF3-55F5-4F0F-914C-B3EC67103BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9814D225-94EB-499B-BA34-154A0792FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>ITEM</t>
   </si>
@@ -110,6 +110,15 @@
     <t>REQ005</t>
   </si>
   <si>
+    <t>REQ006</t>
+  </si>
+  <si>
+    <t>REQ007</t>
+  </si>
+  <si>
+    <t>REQ008</t>
+  </si>
+  <si>
     <t>REQ009</t>
   </si>
   <si>
@@ -182,6 +191,9 @@
     <t>Ingresar los pedidos que se haga por parte del cliente</t>
   </si>
   <si>
+    <t>Administrador</t>
+  </si>
+  <si>
     <t>El cliente podra hacer reservas anticipadas</t>
   </si>
   <si>
@@ -197,6 +209,9 @@
     <t>Luego de ingreso de los datos se da un reporte de la factura</t>
   </si>
   <si>
+    <t>Comandas</t>
+  </si>
+  <si>
     <t>COMENTARIOS ADICIONALES</t>
   </si>
   <si>
@@ -206,10 +221,37 @@
     <t>Agregar clientes</t>
   </si>
   <si>
+    <t xml:space="preserve">Para poder saber los usuarios que existen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario registra los productos en el sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporte </t>
+  </si>
+  <si>
+    <t>Reporte/Listado</t>
+  </si>
+  <si>
+    <t>Configuraciones</t>
+  </si>
+  <si>
     <t>Ingreso de usuarios</t>
   </si>
   <si>
     <t>Registro proovedores</t>
+  </si>
+  <si>
+    <t>Los productos quedan registrados en la BD</t>
+  </si>
+  <si>
+    <t>Se muestran en un tabla las ventas luego de ser ingresadas</t>
+  </si>
+  <si>
+    <t>Se lo hace mediante la BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se imprimee un reporte d elos usuarios registrados </t>
   </si>
   <si>
     <t>Muestar en pantalla las ventas ingresadas</t>
@@ -257,9 +299,48 @@
  modificar los datos del proveedor existente en el listado de los proveedores.</t>
   </si>
   <si>
+    <t>Para tener un historial de todos los productos como su precio, stok entre otros</t>
+  </si>
+  <si>
+    <t>Los usuarios podran registrar los productos mediante el codigo, descripcion, cantidad, precio y proveedor para poder llevar un control de precio como de stock.</t>
+  </si>
+  <si>
+    <t>Generar Historial de Ventas</t>
+  </si>
+  <si>
+    <t>Registrar Productos</t>
+  </si>
+  <si>
     <t>Registrar Proveedores</t>
   </si>
   <si>
+    <t>Muestra los productos más vendidos mediante un historial de ventas de los vendedores usuarios y tener un control de estos mismos</t>
+  </si>
+  <si>
+    <t>Muestra un historial de las ventas realizadas por los usuarios durante el dia, semanal, mensual, o anual en un archivo PDF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muestra el listado de una venta en particular.</t>
+  </si>
+  <si>
+    <t>Configurar datos de la empresa</t>
+  </si>
+  <si>
+    <t>Generar listado de usuarios</t>
+  </si>
+  <si>
+    <t>Para tener un control de los usuarios que estan registrados.</t>
+  </si>
+  <si>
+    <t>Las configuraciones ayudaran a modificar o actualizar los datos de la empresa que este haciendo uso del sistema de ventas “Minimarket Technology”.</t>
+  </si>
+  <si>
+    <t>Para poder control de seguridad en los datos de la empresa.</t>
+  </si>
+  <si>
+    <t>Muestra la informacion de la la empresa que este haciendo uso del sistema</t>
+  </si>
+  <si>
     <t>Crea cuenta de usuario para ingreso al sistema.</t>
   </si>
   <si>
@@ -275,10 +356,19 @@
     <t>Rommel Zambrano</t>
   </si>
   <si>
+    <t>Ligia Maldonado</t>
+  </si>
+  <si>
+    <t>Silvia Yunga</t>
+  </si>
+  <si>
     <t>Brandon Saltos</t>
   </si>
   <si>
     <t>Ruben Gonzalez</t>
+  </si>
+  <si>
+    <t>Se despliega una lista con todos los usuarios registrados en el sistema mediante su ID</t>
   </si>
   <si>
     <t>Registro de Usuario</t>
@@ -912,6 +1002,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,36 +1040,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,6 +1060,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,8 +1414,8 @@
   </sheetPr>
   <dimension ref="A2:Z1020"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1357,23 +1447,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="54"/>
+      <c r="B6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1427,15 +1517,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="54"/>
+      <c r="E9" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="56"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -1451,17 +1541,17 @@
         <v>14</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,5,0)</f>
+      <c r="E10" s="58" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,5,0)</f>
         <v>Administrador-Empleado</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,11,0)</f>
+      <c r="H10" s="58" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,11,0)</f>
         <v>Terminado</v>
       </c>
-      <c r="I10" s="54"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="24"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -1503,18 +1593,18 @@
       <c r="A12" s="4"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="23"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="54"/>
+      <c r="H12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="56"/>
       <c r="J12" s="24"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
@@ -1537,21 +1627,21 @@
       <c r="A13" s="4"/>
       <c r="B13" s="17"/>
       <c r="C13" s="22">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O18,8,0)</f>
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O22,8,0)</f>
         <v>4</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,10,0)</f>
+      <c r="E13" s="58" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="55" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,7,0)</f>
+      <c r="H13" s="58" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,7,0)</f>
         <v>Robert Sanguña</v>
       </c>
-      <c r="I13" s="54"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="24"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -1602,33 +1692,33 @@
       <c r="A15" s="4"/>
       <c r="B15" s="17"/>
       <c r="C15" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="69" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="63" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,3,0)</f>
         <v xml:space="preserve">Poder ingresar al sistema </v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="20"/>
       <c r="G15" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="69" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,4,0)</f>
+        <v>41</v>
+      </c>
+      <c r="H15" s="63" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,4,0)</f>
         <v xml:space="preserve">Para que los usuarios puedan ingresas las ventas, productos, clientes </v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="57"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="20"/>
       <c r="L15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="38" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,6,0)</f>
+        <v>42</v>
+      </c>
+      <c r="M15" s="45" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,6,0)</f>
         <v>Antes de poder ingresar al sistema se necesitará que se hayan registrado previamente, sí ya se cuenta con un usuario y contraseña entonces se podra ingresar al sistema.</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1645,18 +1735,18 @@
       <c r="A16" s="4"/>
       <c r="B16" s="17"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="20"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="62"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="20"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1673,18 +1763,18 @@
       <c r="A17" s="4"/>
       <c r="B17" s="17"/>
       <c r="C17" s="37"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="20"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="20"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1727,42 +1817,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
-      <c r="C19" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="47" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,14,0)</f>
+      <c r="C19" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="64" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,14,0)</f>
         <v>Ingreso al sistema</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="69"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="4"/>
     </row>
@@ -1787,29 +1877,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="38" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,12,0)</f>
+      <c r="C22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="45" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,12,0)</f>
         <v>Se verifica con el ingreso de un usuario y contraseña</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="65" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,13,0)</f>
+      <c r="K22" s="39"/>
+      <c r="L22" s="59" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O22,13,0)</f>
         <v>Sin  comentarios</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="57"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1825,19 +1915,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="62"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1853,19 +1943,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="59"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -3444,6 +3534,11 @@
     <row r="1020" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -3460,11 +3555,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -3495,7 +3585,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$18</xm:f>
+            <xm:f>'Formato descripción HU'!$B$6:$B$22</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C11</xm:sqref>
         </x14:dataValidation>
@@ -3512,7 +3602,7 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3573,7 +3663,7 @@
     <row r="3" spans="1:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -3655,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>13</v>
@@ -3677,22 +3767,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I6" s="9">
         <v>4</v>
@@ -3704,16 +3794,16 @@
         <v>15</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,22 +3811,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="I7" s="9">
         <v>4</v>
@@ -3748,16 +3838,16 @@
         <v>15</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,22 +3855,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I8" s="9">
         <v>4</v>
@@ -3792,16 +3882,16 @@
         <v>15</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3809,22 +3899,22 @@
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F9" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I9" s="9">
         <v>4</v>
@@ -3836,16 +3926,16 @@
         <v>15</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="O9" s="9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3853,22 +3943,22 @@
         <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I10" s="9">
         <v>4</v>
@@ -3880,93 +3970,197 @@
         <v>15</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>44741</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>44742</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>44743</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10">
+        <v>44744</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3984,7 +4178,7 @@
     </row>
     <row r="16" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4002,7 +4196,7 @@
     </row>
     <row r="17" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4020,7 +4214,7 @@
     </row>
     <row r="18" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4037,47 +4231,95 @@
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="2"/>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="2"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,148 +4337,148 @@
     <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="4"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
@@ -9948,24 +10190,44 @@
       <c r="K999" s="3"/>
       <c r="L999" s="2"/>
     </row>
-    <row r="1000" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="2"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="2"/>
+    </row>
+    <row r="1001" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="2"/>
+    </row>
+    <row r="1002" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="2"/>
+    </row>
+    <row r="1003" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="3"/>
+      <c r="L1003" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J10">
-    <sortCondition ref="J6:J10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J6:J11">
+    <sortCondition ref="J6:J11"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L18" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$L$28:$L$31</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$L$32:$L$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K18" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$28:$K$30</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$32:$K$34</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
